--- a/Stuff For Class/Homework Assignments/Assignment 1/tuition.xlsx
+++ b/Stuff For Class/Homework Assignments/Assignment 1/tuition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D98B0C-15DE-A34C-918D-BBDD2CD08091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5664FF9-0408-954F-802A-214C3F7002AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="1500" yWindow="1100" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tuition" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Angela Mora</t>
   </si>
   <si>
-    <t>Angela Oneill DDS</t>
-  </si>
-  <si>
     <t>Anthony Martinez</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Brittany Jones</t>
   </si>
   <si>
-    <t>Carrie Trujillo MD</t>
-  </si>
-  <si>
     <t>Chase Sanders</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Donald Blevins</t>
   </si>
   <si>
-    <t>Dr. Jonathan Cook</t>
-  </si>
-  <si>
     <t>Eric Ellis</t>
   </si>
   <si>
@@ -256,12 +247,6 @@
     <t>Michael Miller</t>
   </si>
   <si>
-    <t>Mrs. Mary Sampson MD</t>
-  </si>
-  <si>
-    <t>Ms. Samantha Steele</t>
-  </si>
-  <si>
     <t>Nicole Allen</t>
   </si>
   <si>
@@ -332,12 +317,27 @@
   </si>
   <si>
     <t>William Stewart</t>
+  </si>
+  <si>
+    <t>Samantha Steele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Sampson </t>
+  </si>
+  <si>
+    <t>Jonathan Cook</t>
+  </si>
+  <si>
+    <t>Carrie Trujillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Oneill </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1191,11 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1324,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1341,7 +1341,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1358,7 +1358,7 @@
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1375,7 +1375,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1426,7 +1426,7 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1443,7 +1443,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1460,7 +1460,7 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1494,7 +1494,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1511,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1528,7 +1528,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1545,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1562,7 +1562,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1579,7 +1579,7 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1596,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1613,7 +1613,7 @@
         <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1630,7 +1630,7 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1647,7 +1647,7 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1681,7 +1681,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1715,7 +1715,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1732,7 +1732,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1749,7 +1749,7 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1783,7 +1783,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1800,7 +1800,7 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1834,7 +1834,7 @@
         <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1868,7 +1868,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1885,7 +1885,7 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1902,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1919,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1936,7 +1936,7 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1953,7 +1953,7 @@
         <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1970,7 +1970,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1987,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -2021,7 +2021,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -2038,7 +2038,7 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2072,7 +2072,7 @@
         <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -2089,7 +2089,7 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2106,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -2123,7 +2123,7 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -2140,7 +2140,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2157,7 +2157,7 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2174,7 +2174,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -2191,7 +2191,7 @@
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -2208,7 +2208,7 @@
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -2225,7 +2225,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -2242,7 +2242,7 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2259,7 +2259,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -2276,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2310,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2327,7 +2327,7 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -2344,7 +2344,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2395,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E71">
         <v>9198</v>
@@ -2406,7 +2406,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2423,7 +2423,7 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2440,7 +2440,7 @@
         <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -2457,7 +2457,7 @@
         <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -2474,7 +2474,7 @@
         <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2491,7 +2491,7 @@
         <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2525,7 +2525,7 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2542,7 +2542,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -2559,7 +2559,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2576,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2593,7 +2593,7 @@
         <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -2610,7 +2610,7 @@
         <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2627,7 +2627,7 @@
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -2644,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2661,7 +2661,7 @@
         <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2678,7 +2678,7 @@
         <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2695,7 +2695,7 @@
         <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2712,7 +2712,7 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2729,7 +2729,7 @@
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2746,7 +2746,7 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -2763,7 +2763,7 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2780,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2797,7 +2797,7 @@
         <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2814,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E96">
         <v>6373</v>
@@ -2825,7 +2825,7 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2842,7 +2842,7 @@
         <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2859,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2876,7 +2876,7 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -2893,7 +2893,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2910,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>

--- a/Stuff For Class/Homework Assignments/Assignment 1/tuition.xlsx
+++ b/Stuff For Class/Homework Assignments/Assignment 1/tuition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5664FF9-0408-954F-802A-214C3F7002AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A14858A-3762-4647-A93B-5A2024A85D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1100" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="24660" windowHeight="15640" xr2:uid="{B3BC613D-9850-4C4F-AF0A-2A30CEF5AD1F}"/>
   </bookViews>
   <sheets>
     <sheet name="tuition" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Jacob Martinez</t>
   </si>
   <si>
-    <t>James Tran MD</t>
-  </si>
-  <si>
     <t>Jamie Knight</t>
   </si>
   <si>
@@ -319,19 +316,22 @@
     <t>William Stewart</t>
   </si>
   <si>
+    <t>Jonathan Cook</t>
+  </si>
+  <si>
     <t>Samantha Steele</t>
   </si>
   <si>
     <t xml:space="preserve">Mary Sampson </t>
   </si>
   <si>
-    <t>Jonathan Cook</t>
+    <t>James Tran</t>
   </si>
   <si>
     <t>Carrie Trujillo</t>
   </si>
   <si>
-    <t xml:space="preserve">Angela Oneill </t>
+    <t>Angela Oneill</t>
   </si>
 </sst>
 </file>
@@ -1191,11 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A49A4-E457-9540-B583-6BE6E179EA9F}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,7 +1647,7 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1758,15 +1758,15 @@
         <v>20000</v>
       </c>
       <c r="E33">
-        <v>14655</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1775,49 +1775,49 @@
         <v>20000</v>
       </c>
       <c r="E34">
-        <v>5369</v>
+        <v>14655</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E35">
-        <v>9843</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E36">
-        <v>6742</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1826,49 +1826,49 @@
         <v>20000</v>
       </c>
       <c r="E37">
-        <v>14608</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E38">
-        <v>10873</v>
+        <v>14608</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E39">
-        <v>8745</v>
+        <v>10873</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1877,66 +1877,66 @@
         <v>20000</v>
       </c>
       <c r="E40">
-        <v>7133</v>
+        <v>8745</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E41">
-        <v>9403</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E42">
-        <v>9574</v>
+        <v>9403</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E43">
-        <v>12411</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1945,32 +1945,32 @@
         <v>30000</v>
       </c>
       <c r="E44">
-        <v>13846</v>
+        <v>12411</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E45">
-        <v>11743</v>
+        <v>13846</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1979,49 +1979,49 @@
         <v>20000</v>
       </c>
       <c r="E46">
-        <v>10176</v>
+        <v>11743</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E47">
-        <v>11174</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E48">
-        <v>9485</v>
+        <v>11174</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -2030,15 +2030,15 @@
         <v>20000</v>
       </c>
       <c r="E49">
-        <v>9404</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2047,15 +2047,15 @@
         <v>20000</v>
       </c>
       <c r="E50">
-        <v>12640</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2064,15 +2064,15 @@
         <v>20000</v>
       </c>
       <c r="E51">
-        <v>10260</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -2081,49 +2081,49 @@
         <v>20000</v>
       </c>
       <c r="E52">
-        <v>7821</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E53">
-        <v>13375</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E54">
-        <v>12814</v>
+        <v>13375</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -2132,32 +2132,32 @@
         <v>20000</v>
       </c>
       <c r="E55">
-        <v>9461</v>
+        <v>12814</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E56">
-        <v>12401</v>
+        <v>9461</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2166,32 +2166,32 @@
         <v>30000</v>
       </c>
       <c r="E57">
-        <v>10327</v>
+        <v>12401</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E58">
-        <v>5200</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -2200,15 +2200,15 @@
         <v>20000</v>
       </c>
       <c r="E59">
-        <v>13674</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -2217,15 +2217,15 @@
         <v>20000</v>
       </c>
       <c r="E60">
-        <v>11388</v>
+        <v>13674</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -2234,49 +2234,49 @@
         <v>20000</v>
       </c>
       <c r="E61">
-        <v>11967</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E62">
-        <v>9901</v>
+        <v>11967</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E63">
-        <v>10445</v>
+        <v>9901</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -2285,15 +2285,15 @@
         <v>20000</v>
       </c>
       <c r="E64">
-        <v>11464</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2302,15 +2302,15 @@
         <v>20000</v>
       </c>
       <c r="E65">
-        <v>12729</v>
+        <v>11464</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2319,15 +2319,15 @@
         <v>20000</v>
       </c>
       <c r="E66">
-        <v>8671</v>
+        <v>12729</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -2336,15 +2336,15 @@
         <v>20000</v>
       </c>
       <c r="E67">
-        <v>14912</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2353,15 +2353,15 @@
         <v>20000</v>
       </c>
       <c r="E68">
-        <v>12477</v>
+        <v>14912</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2370,15 +2370,15 @@
         <v>20000</v>
       </c>
       <c r="E69">
-        <v>6853</v>
+        <v>12477</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2387,26 +2387,32 @@
         <v>20000</v>
       </c>
       <c r="E70">
-        <v>11835</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>20000</v>
       </c>
       <c r="E71">
-        <v>9198</v>
+        <v>11835</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2415,32 +2421,32 @@
         <v>30000</v>
       </c>
       <c r="E72">
-        <v>5350</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E73">
-        <v>11960</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -2449,83 +2455,83 @@
         <v>20000</v>
       </c>
       <c r="E74">
-        <v>11571</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E75">
-        <v>13234</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E76">
-        <v>8653</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E77">
-        <v>13103</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E78">
-        <v>9677</v>
+        <v>13103</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2534,49 +2540,49 @@
         <v>20000</v>
       </c>
       <c r="E79">
-        <v>12634</v>
+        <v>9677</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E80">
-        <v>7489</v>
+        <v>12634</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E81">
-        <v>6278</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2585,49 +2591,49 @@
         <v>20000</v>
       </c>
       <c r="E82">
-        <v>11405</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E83">
-        <v>14502</v>
+        <v>11405</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E84">
-        <v>9818</v>
+        <v>14502</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -2636,15 +2642,15 @@
         <v>20000</v>
       </c>
       <c r="E85">
-        <v>11019</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2653,15 +2659,15 @@
         <v>20000</v>
       </c>
       <c r="E86">
-        <v>9468</v>
+        <v>11019</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2670,15 +2676,15 @@
         <v>20000</v>
       </c>
       <c r="E87">
-        <v>11276</v>
+        <v>9468</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2687,49 +2693,49 @@
         <v>20000</v>
       </c>
       <c r="E88">
-        <v>12633</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E89">
-        <v>8210</v>
+        <v>12633</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E90">
-        <v>12805</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2738,49 +2744,49 @@
         <v>20000</v>
       </c>
       <c r="E91">
-        <v>11038</v>
+        <v>12805</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E92">
-        <v>9704</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E93">
-        <v>12543</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2789,15 +2795,15 @@
         <v>20000</v>
       </c>
       <c r="E94">
-        <v>14750</v>
+        <v>12543</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2806,26 +2812,32 @@
         <v>20000</v>
       </c>
       <c r="E95">
-        <v>11481</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>20000</v>
       </c>
       <c r="E96">
-        <v>6373</v>
+        <v>11481</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2834,15 +2846,15 @@
         <v>20000</v>
       </c>
       <c r="E97">
-        <v>13431</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2851,15 +2863,15 @@
         <v>20000</v>
       </c>
       <c r="E98">
-        <v>12094</v>
+        <v>13431</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2868,58 +2880,58 @@
         <v>20000</v>
       </c>
       <c r="E99">
-        <v>5761</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E100">
-        <v>10663</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E101">
-        <v>9349</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E102">
-        <v>12978</v>
+        <v>9349</v>
       </c>
     </row>
   </sheetData>
